--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921192.8281156281</v>
+        <v>942346.5010809154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8768468.324881043</v>
+        <v>8768468.324881045</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>300.7160506995324</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>63.11667081024502</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0555388225931</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>81.1220065286369</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>24.59170878023815</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>46.80807769362098</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.3734398702023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15.11714581632392</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>94.6392697836408</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903365</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>389.0396295043337</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>157.7357262271252</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.28266751616635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>221.0021786982965</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>29.43357108566551</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1944522398491</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228957</v>
+        <v>340.0237825764901</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15.91242278797903</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>34.1005047385018</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480835</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>302.7074269809888</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.194452239849</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>155.211488636581</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>97.42438893504196</v>
       </c>
     </row>
     <row r="24">
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76.06564645490545</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>238.4631285907687</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>70.80276983270117</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.95117253761778</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>90.04875807993751</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>123.2755971265068</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>123.5492650282466</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>92.00803688215785</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>34.80587069293263</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3323,16 +3323,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>56.07426992839161</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>28.10115714452277</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>221.002178698296</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>373.7512243215245</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>92.00803688215785</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>265.5831836620146</v>
       </c>
       <c r="H41" t="n">
-        <v>216.9392492676206</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>376.6880442624576</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>89.76224143674111</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>101.780687729549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>743.484820983793</v>
+        <v>1353.108660267569</v>
       </c>
       <c r="C2" t="n">
-        <v>743.484820983793</v>
+        <v>984.1461433271577</v>
       </c>
       <c r="D2" t="n">
-        <v>743.484820983793</v>
+        <v>984.1461433271577</v>
       </c>
       <c r="E2" t="n">
-        <v>357.6965683855488</v>
+        <v>598.3578907289134</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>598.3578907289134</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023727</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.084661047915</v>
+        <v>1739.708500331691</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482877</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482877</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5443364482877</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>377.5443364482877</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>208.5445361866201</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W5" t="n">
-        <v>1637.643464250441</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.643464250441</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.643464250441</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,13 +4662,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>156.7517573047574</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>156.7517573047574</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>156.7517573047574</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4768,7 +4768,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1905.140074719375</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>2291.739914783497</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4872,40 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>632.5337622027571</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1970.914677487029</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C11" t="n">
-        <v>1601.952160546617</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D11" t="n">
-        <v>1243.686461939867</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E11" t="n">
-        <v>857.8982093416223</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>446.9123045520147</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036446</v>
@@ -5039,10 +5039,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224074</v>
@@ -5051,13 +5051,13 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
         <v>2697.149091018223</v>
@@ -5069,22 +5069,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2537.820074627187</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.058289265279</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>1952.995401921708</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748109</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487029</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y11" t="n">
-        <v>1970.914677487029</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5124,7 +5124,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
         <v>1237.953133915166</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.5404311598019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036446</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>697.5404311598019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>697.5404311598019</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T13" t="n">
-        <v>697.5404311598019</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
-        <v>697.5404311598019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V13" t="n">
-        <v>697.5404311598019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W13" t="n">
-        <v>697.5404311598019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X13" t="n">
-        <v>697.5404311598019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>697.5404311598019</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247703</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.68094731003</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
         <v>882.8926947117852</v>
@@ -5276,13 +5276,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2667.418211133712</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2336.355323790141</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>1983.586668520027</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,16 +5355,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.4805193761948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>377.5443364482879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>377.5443364482879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>377.5443364482879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>377.5443364482879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036446</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064346</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064346</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.94416071721</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776798</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776798</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785536</v>
+        <v>808.3872528488509</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889461</v>
+        <v>397.4013480592434</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036446</v>
@@ -5519,7 +5519,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5528,7 +5528,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
         <v>2544.691559791253</v>
@@ -5552,13 +5552,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036446</v>
@@ -5595,13 +5595,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5637,7 +5637,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.01613615165641</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C19" t="n">
-        <v>70.01613615165641</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D19" t="n">
-        <v>70.01613615165641</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E19" t="n">
-        <v>70.01613615165641</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F19" t="n">
-        <v>70.01613615165641</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036446</v>
@@ -5680,7 +5680,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
         <v>529.6040388502502</v>
@@ -5689,34 +5689,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406186</v>
+        <v>693.6840299251195</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406186</v>
+        <v>466.3758425937212</v>
       </c>
       <c r="U19" t="n">
-        <v>290.8087152951865</v>
+        <v>466.3758425937212</v>
       </c>
       <c r="V19" t="n">
-        <v>290.8087152951865</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W19" t="n">
-        <v>290.8087152951865</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X19" t="n">
-        <v>290.8087152951865</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.01613615165641</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1610.120910258947</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.158393318536</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036446</v>
@@ -5750,28 +5750,28 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
@@ -5786,16 +5786,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2336.355323790141</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1983.586668520027</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1610.120910258947</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1610.120910258947</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615931</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572651</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2515.500626187983</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018223</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018223</v>
+        <v>210.7222632714564</v>
       </c>
       <c r="Y22" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>892.8693763960225</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6178,13 +6178,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2407.975480672791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>2312.380258669114</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X25" t="n">
         <v>2022.963088632153</v>
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1289.354447327928</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C26" t="n">
-        <v>920.3919303875161</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>920.3919303875161</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6254,22 +6254,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1739.654191907094</v>
+        <v>2401.248554487333</v>
       </c>
       <c r="X26" t="n">
-        <v>1366.188433646014</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y26" t="n">
-        <v>1366.188433646014</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>656.6110348804735</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D28" t="n">
-        <v>506.4943954681378</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E28" t="n">
-        <v>358.5813018857447</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F28" t="n">
-        <v>211.6913543878343</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1584.823100673951</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.9013233152508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>144.9013233152508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>144.9013233152508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>144.9013233152508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>144.9013233152508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6643,28 +6643,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>365.6939024587809</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X31" t="n">
-        <v>365.6939024587809</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.9013233152508</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1125.191652989356</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1125.191652989356</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D32" t="n">
-        <v>766.9259543826058</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6734,16 +6734,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.712458167646</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6777,43 +6777,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>2547.032451605887</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>2399.119358023494</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>2252.229410525583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>2252.229410525583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
         <v>2022.963088632153</v>
@@ -6889,19 +6889,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1620.08070321196</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C35" t="n">
-        <v>1251.118186271549</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D35" t="n">
-        <v>892.8524876647982</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E35" t="n">
-        <v>507.064235066554</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F35" t="n">
-        <v>507.064235066554</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G35" t="n">
-        <v>89.10042696474085</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>1993.54646147304</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X35" t="n">
-        <v>1620.08070321196</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y35" t="n">
-        <v>1620.08070321196</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,22 +7035,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>240.076361604524</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>82.32798903705412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7120,25 +7120,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1485.892406545185</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1116.929889604773</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D38" t="n">
-        <v>758.6641909980228</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>758.6641909980228</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>758.6641909980228</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7202,22 +7202,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1485.892406545185</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1485.892406545185</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7227,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>2547.032451605887</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>2399.119358023494</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>2252.229410525583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>2252.229410525583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
         <v>2022.963088632153</v>
@@ -7363,19 +7363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018222</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1386.090004781549</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C41" t="n">
-        <v>1017.127487841138</v>
+        <v>1546.92347107711</v>
       </c>
       <c r="D41" t="n">
-        <v>658.8617892343871</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="E41" t="n">
-        <v>273.0735366361428</v>
+        <v>802.869519872115</v>
       </c>
       <c r="F41" t="n">
-        <v>273.0735366361428</v>
+        <v>802.869519872115</v>
       </c>
       <c r="G41" t="n">
-        <v>273.0735366361428</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1759.555763042629</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X41" t="n">
-        <v>1386.090004781549</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y41" t="n">
-        <v>1386.090004781549</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7600,19 +7600,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1547.452423968253</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C44" t="n">
-        <v>1178.489907027842</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D44" t="n">
-        <v>820.2242084210911</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E44" t="n">
-        <v>434.4359558228469</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>434.4359558228469</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7646,19 +7646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7679,19 +7679,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2551.451470804533</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2220.388583460962</v>
       </c>
       <c r="W44" t="n">
-        <v>2311.057514205145</v>
+        <v>1867.619928190848</v>
       </c>
       <c r="X44" t="n">
-        <v>1937.591755944065</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.452423968253</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7749,7 +7749,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7764,10 +7764,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036445</v>
@@ -7837,19 +7837,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>625.3202087220412</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599053</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>106.159995042179</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>350.66749921055</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.115350019202054</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,22 +22781,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>135.3263138290209</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>324.6492599371749</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,31 +22939,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>109.3628111481742</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23008,7 +23008,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.3604017932783</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23033,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23075,7 +23075,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>236.1070216919654</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,10 +23197,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,25 +23221,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>130.3958356744435</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23258,25 +23258,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24.74454051646126</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>58.71259413053258</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,28 +23416,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>116.3825244639915</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>144.2707130727111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,19 +23549,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>221.7905964226238</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>3.115350019201799</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23695,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789928</v>
+        <v>73.76038744430491</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23792,7 +23792,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>151.3973794710719</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,22 +23932,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>178.0450342115171</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>25.04483148914613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>3.115350019201912</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,10 +24169,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551381</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>144.2707130727115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>288.8135497210116</v>
       </c>
     </row>
     <row r="24">
@@ -24418,16 +24418,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401878</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>306.6681952085751</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,16 +24452,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>110.7778401266443</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>96.44405126592666</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24737,16 +24737,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>355.2867661184358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>77.2610441791134</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24883,10 +24883,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>259.4582445369738</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>241.723626742761</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,10 +24974,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>64.16285195963729</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25129,13 +25129,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25160,19 +25160,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>289.1169020714245</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25211,16 +25211,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>330.163668727662</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>106.8644646478155</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25360,16 +25360,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>133.680862922387</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>40.03294569927044</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25442,22 +25442,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,22 +25552,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>64.16285195963729</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25603,19 +25603,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684547</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>148.2009863587804</v>
       </c>
       <c r="H41" t="n">
-        <v>106.9835234967366</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,10 +25682,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25840,19 +25840,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="44">
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>37.09612575833739</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25919,19 +25919,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>161.4619260715482</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>150.356955594279</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758313.1631806016</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
         <v>289152.6100157577</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="H2" t="n">
         <v>289152.6100157576</v>
@@ -26335,7 +26335,7 @@
         <v>289152.6100157574</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
@@ -26353,7 +26353,7 @@
         <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422147.4150659057</v>
+        <v>-419619.093902463</v>
       </c>
       <c r="C6" t="n">
-        <v>167820.4641486389</v>
+        <v>170348.7853120812</v>
       </c>
       <c r="D6" t="n">
-        <v>167820.4641486387</v>
+        <v>170348.7853120812</v>
       </c>
       <c r="E6" t="n">
-        <v>201448.0641486391</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="F6" t="n">
-        <v>201448.0641486391</v>
+        <v>203976.3853120814</v>
       </c>
       <c r="G6" t="n">
-        <v>201448.0641486391</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="H6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="I6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="J6" t="n">
-        <v>25024.84495604589</v>
+        <v>27553.16611948836</v>
       </c>
       <c r="K6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="L6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="M6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="N6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="O6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="P6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120814</v>
       </c>
     </row>
   </sheetData>
@@ -26741,19 +26741,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545557</v>
@@ -26811,7 +26811,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,25 +31932,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,25 +32169,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32239,34 +32239,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,40 +32303,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
@@ -32345,7 +32345,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,25 +32406,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,43 +32467,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,25 +32643,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35817,10 +35817,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36054,10 +36054,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36291,10 +36291,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,7 +36683,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37154,7 +37154,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,13 +37631,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
